--- a/Do An Quan Ly Nha Hang/DoAnQuanLyNhaHang/DoAnQuanLyNhaHang/bin/Debug/ThongKeDoanhThu.xlsx
+++ b/Do An Quan Ly Nha Hang/DoAnQuanLyNhaHang/DoAnQuanLyNhaHang/bin/Debug/ThongKeDoanhThu.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="C10:E10"/>
+      <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,10 +708,13 @@
       <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="E11" s="8" t="s">
@@ -749,9 +752,9 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
